--- a/raw_data/hotel_collection_clean.xlsx
+++ b/raw_data/hotel_collection_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peeranutmacpro/Files/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peeranutmacpro/Files/project/SWDev-hotel-reservation/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534FF818-9C79-2D4D-B844-9AEEAF1F474A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A7A55-F533-E846-AFB8-124A90140596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Generated by Outscraper ©" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="2133">
   <si>
     <t>name</t>
   </si>
@@ -6419,6 +6419,9 @@
   </si>
   <si>
     <t>sub_district</t>
+  </si>
+  <si>
+    <t>score</t>
   </si>
 </sst>
 </file>
@@ -6450,7 +6453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6473,13 +6476,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6820,15 +6837,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M400"/>
+  <dimension ref="A1:N400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6868,8 +6885,11 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6909,8 +6929,11 @@
       <c r="M2" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6947,8 +6970,11 @@
       <c r="L3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6985,8 +7011,11 @@
       <c r="M4" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7020,8 +7049,11 @@
       <c r="K5" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -7058,8 +7090,11 @@
       <c r="L6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7096,8 +7131,11 @@
       <c r="L7" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7134,8 +7172,11 @@
       <c r="L8" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7172,8 +7213,11 @@
       <c r="M9" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -7210,8 +7254,11 @@
       <c r="M10" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -7248,8 +7295,11 @@
       <c r="L11" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -7283,8 +7333,11 @@
       <c r="K12" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -7324,8 +7377,11 @@
       <c r="M13" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7365,8 +7421,11 @@
       <c r="M14" t="s">
         <v>1889</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -7403,8 +7462,11 @@
       <c r="L15" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7444,8 +7506,11 @@
       <c r="M16" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7485,8 +7550,11 @@
       <c r="M17" t="s">
         <v>1891</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -7526,8 +7594,11 @@
       <c r="M18" t="s">
         <v>1892</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -7564,8 +7635,11 @@
       <c r="M19" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -7605,8 +7679,11 @@
       <c r="M20" t="s">
         <v>1894</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -7646,8 +7723,11 @@
       <c r="M21" t="s">
         <v>1895</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -7687,8 +7767,11 @@
       <c r="M22" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -7728,8 +7811,11 @@
       <c r="M23" t="s">
         <v>1897</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -7769,8 +7855,11 @@
       <c r="M24" t="s">
         <v>1898</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7810,8 +7899,11 @@
       <c r="M25" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -7851,8 +7943,11 @@
       <c r="M26" t="s">
         <v>1900</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -7892,8 +7987,11 @@
       <c r="M27" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -7933,8 +8031,11 @@
       <c r="M28" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -7974,8 +8075,11 @@
       <c r="M29" t="s">
         <v>1903</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -8015,8 +8119,11 @@
       <c r="M30" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -8056,8 +8163,11 @@
       <c r="M31" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -8097,8 +8207,11 @@
       <c r="M32" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -8132,8 +8245,11 @@
       <c r="K33" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -8173,8 +8289,11 @@
       <c r="M34" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -8211,8 +8330,11 @@
       <c r="L35" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -8249,8 +8371,11 @@
       <c r="L36" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -8290,8 +8415,11 @@
       <c r="M37" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -8328,8 +8456,11 @@
       <c r="L38" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -8363,8 +8494,11 @@
       <c r="K39" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -8401,8 +8535,11 @@
       <c r="L40" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -8442,8 +8579,11 @@
       <c r="M41" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -8483,8 +8623,11 @@
       <c r="M42" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -8524,8 +8667,11 @@
       <c r="M43" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8562,8 +8708,11 @@
       <c r="M44" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -8600,8 +8749,11 @@
       <c r="M45" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -8641,8 +8793,11 @@
       <c r="M46" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -8682,8 +8837,11 @@
       <c r="M47" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -8720,8 +8878,11 @@
       <c r="L48" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -8761,8 +8922,11 @@
       <c r="M49" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -8799,8 +8963,11 @@
       <c r="L50" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -8837,8 +9004,11 @@
       <c r="M51" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -8875,8 +9045,11 @@
       <c r="L52" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -8910,8 +9083,11 @@
       <c r="K53" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -8948,8 +9124,11 @@
       <c r="M54" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -8989,8 +9168,11 @@
       <c r="M55" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -9027,8 +9209,11 @@
       <c r="L56" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -9065,8 +9250,11 @@
       <c r="L57" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -9103,8 +9291,11 @@
       <c r="L58" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -9141,8 +9332,11 @@
       <c r="L59" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -9179,8 +9373,11 @@
       <c r="L60" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -9217,8 +9414,11 @@
       <c r="L61" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -9258,8 +9458,11 @@
       <c r="M62" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -9299,8 +9502,11 @@
       <c r="M63" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -9340,8 +9546,11 @@
       <c r="M64" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -9378,8 +9587,11 @@
       <c r="M65" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -9416,8 +9628,11 @@
       <c r="L66" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -9457,8 +9672,11 @@
       <c r="M67" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -9498,8 +9716,11 @@
       <c r="M68" t="s">
         <v>1925</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -9536,8 +9757,11 @@
       <c r="L69" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -9577,8 +9801,11 @@
       <c r="M70" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -9615,8 +9842,11 @@
       <c r="M71" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -9656,8 +9886,11 @@
       <c r="M72" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -9697,8 +9930,11 @@
       <c r="M73" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -9735,8 +9971,11 @@
       <c r="M74" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -9776,8 +10015,11 @@
       <c r="M75" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -9817,8 +10059,11 @@
       <c r="M76" t="s">
         <v>1932</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -9858,8 +10103,11 @@
       <c r="M77" t="s">
         <v>1933</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -9896,8 +10144,11 @@
       <c r="L78" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -9934,8 +10185,11 @@
       <c r="L79" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -9972,8 +10226,11 @@
       <c r="L80" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -10013,8 +10270,11 @@
       <c r="M81" t="s">
         <v>1934</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -10051,8 +10311,11 @@
       <c r="L82" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -10092,8 +10355,11 @@
       <c r="M83" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -10127,8 +10393,11 @@
       <c r="K84" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -10168,8 +10437,11 @@
       <c r="M85" t="s">
         <v>1936</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -10209,8 +10481,11 @@
       <c r="M86" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -10244,8 +10519,11 @@
       <c r="K87" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -10279,8 +10557,11 @@
       <c r="K88" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -10320,8 +10601,11 @@
       <c r="M89" t="s">
         <v>1938</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -10361,8 +10645,11 @@
       <c r="M90" t="s">
         <v>1939</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -10399,8 +10686,11 @@
       <c r="L91" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -10440,8 +10730,11 @@
       <c r="M92" t="s">
         <v>1940</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -10478,8 +10771,11 @@
       <c r="L93" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -10519,8 +10815,11 @@
       <c r="M94" t="s">
         <v>1941</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -10557,8 +10856,11 @@
       <c r="L95" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -10598,8 +10900,11 @@
       <c r="M96" t="s">
         <v>1942</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -10639,8 +10944,11 @@
       <c r="M97" t="s">
         <v>1943</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -10680,8 +10988,11 @@
       <c r="M98" t="s">
         <v>1944</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -10715,8 +11026,11 @@
       <c r="K99" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -10756,8 +11070,11 @@
       <c r="M100" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -10797,8 +11114,11 @@
       <c r="M101" t="s">
         <v>1946</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -10838,8 +11158,11 @@
       <c r="M102" t="s">
         <v>1947</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -10879,8 +11202,11 @@
       <c r="M103" t="s">
         <v>1948</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -10917,8 +11243,11 @@
       <c r="L104" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -10958,8 +11287,11 @@
       <c r="M105" t="s">
         <v>1949</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -10999,8 +11331,11 @@
       <c r="M106" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -11040,8 +11375,11 @@
       <c r="M107" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -11081,8 +11419,11 @@
       <c r="M108" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -11122,8 +11463,11 @@
       <c r="M109" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -11163,8 +11507,11 @@
       <c r="M110" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -11204,8 +11551,11 @@
       <c r="M111" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -11242,8 +11592,11 @@
       <c r="L112" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -11283,8 +11636,11 @@
       <c r="M113" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -11324,8 +11680,11 @@
       <c r="M114" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -11365,8 +11724,11 @@
       <c r="M115" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -11400,8 +11762,11 @@
       <c r="K116" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -11438,8 +11803,11 @@
       <c r="L117" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -11479,8 +11847,11 @@
       <c r="M118" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -11520,8 +11891,11 @@
       <c r="M119" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -11561,8 +11935,11 @@
       <c r="M120" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -11596,8 +11973,11 @@
       <c r="L121" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -11637,8 +12017,11 @@
       <c r="M122" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -11675,8 +12058,11 @@
       <c r="L123" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -11716,8 +12102,11 @@
       <c r="M124" t="s">
         <v>1963</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -11754,8 +12143,11 @@
       <c r="L125" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -11795,8 +12187,11 @@
       <c r="M126" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -11836,8 +12231,11 @@
       <c r="M127" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -11874,8 +12272,11 @@
       <c r="L128" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -11915,8 +12316,11 @@
       <c r="M129" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -11953,8 +12357,11 @@
       <c r="L130" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -11991,8 +12398,11 @@
       <c r="L131" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -12032,8 +12442,11 @@
       <c r="M132" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -12073,8 +12486,11 @@
       <c r="M133" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -12114,8 +12530,11 @@
       <c r="M134" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -12155,8 +12574,11 @@
       <c r="M135" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -12196,8 +12618,11 @@
       <c r="M136" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -12234,8 +12659,11 @@
       <c r="L137" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -12275,8 +12703,11 @@
       <c r="M138" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -12316,8 +12747,11 @@
       <c r="M139" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -12354,8 +12788,11 @@
       <c r="L140" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -12395,8 +12832,11 @@
       <c r="M141" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -12433,8 +12873,11 @@
       <c r="M142" t="s">
         <v>1975</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -12471,8 +12914,11 @@
       <c r="L143" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12509,8 +12955,11 @@
       <c r="L144" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -12547,8 +12996,11 @@
       <c r="L145" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -12585,8 +13037,11 @@
       <c r="L146" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -12626,8 +13081,11 @@
       <c r="M147" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -12664,8 +13122,11 @@
       <c r="L148" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -12702,8 +13163,11 @@
       <c r="L149" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -12743,8 +13207,11 @@
       <c r="M150" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -12778,8 +13245,11 @@
       <c r="K151" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -12819,8 +13289,11 @@
       <c r="M152" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -12860,8 +13333,11 @@
       <c r="M153" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -12898,8 +13374,11 @@
       <c r="L154" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -12939,8 +13418,11 @@
       <c r="M155" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -12977,8 +13459,11 @@
       <c r="L156" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -13018,8 +13503,11 @@
       <c r="M157" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -13059,8 +13547,11 @@
       <c r="M158" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -13097,8 +13588,11 @@
       <c r="L159" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -13135,8 +13629,11 @@
       <c r="L160" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -13173,8 +13670,11 @@
       <c r="L161" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -13211,8 +13711,11 @@
       <c r="L162" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -13246,8 +13749,11 @@
       <c r="K163" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -13284,8 +13790,11 @@
       <c r="L164" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -13319,8 +13828,11 @@
       <c r="K165" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -13357,8 +13869,11 @@
       <c r="L166" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -13395,8 +13910,11 @@
       <c r="M167" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -13436,8 +13954,11 @@
       <c r="M168" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -13474,8 +13995,11 @@
       <c r="L169" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -13512,8 +14036,11 @@
       <c r="L170" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -13553,8 +14080,11 @@
       <c r="M171" t="s">
         <v>1985</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -13591,8 +14121,11 @@
       <c r="L172" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -13632,8 +14165,11 @@
       <c r="M173" t="s">
         <v>1986</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -13673,8 +14209,11 @@
       <c r="M174" t="s">
         <v>1987</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -13714,8 +14253,11 @@
       <c r="M175" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -13755,8 +14297,11 @@
       <c r="M176" t="s">
         <v>1989</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -13796,8 +14341,11 @@
       <c r="M177" t="s">
         <v>1990</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -13837,8 +14385,11 @@
       <c r="M178" t="s">
         <v>1991</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -13878,8 +14429,11 @@
       <c r="M179" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -13919,8 +14473,11 @@
       <c r="M180" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -13954,8 +14511,11 @@
       <c r="K181" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -13992,8 +14552,11 @@
       <c r="L182" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -14033,8 +14596,11 @@
       <c r="M183" t="s">
         <v>1994</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -14074,8 +14640,11 @@
       <c r="M184" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -14115,8 +14684,11 @@
       <c r="M185" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -14156,8 +14728,11 @@
       <c r="M186" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -14197,8 +14772,11 @@
       <c r="M187" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -14238,8 +14816,11 @@
       <c r="M188" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -14276,8 +14857,11 @@
       <c r="L189" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -14317,8 +14901,11 @@
       <c r="M190" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -14358,8 +14945,11 @@
       <c r="M191" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -14396,8 +14986,11 @@
       <c r="L192" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -14437,8 +15030,11 @@
       <c r="M193" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -14478,8 +15074,11 @@
       <c r="M194" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -14519,8 +15118,11 @@
       <c r="M195" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -14560,8 +15162,11 @@
       <c r="M196" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -14601,8 +15206,11 @@
       <c r="M197" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -14642,8 +15250,11 @@
       <c r="M198" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -14680,8 +15291,11 @@
       <c r="L199" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -14721,8 +15335,11 @@
       <c r="M200" t="s">
         <v>2008</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -14762,8 +15379,11 @@
       <c r="M201" t="s">
         <v>2009</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -14803,8 +15423,11 @@
       <c r="M202" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>211</v>
       </c>
@@ -14841,8 +15464,11 @@
       <c r="L203" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -14879,8 +15505,11 @@
       <c r="M204" t="s">
         <v>2011</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -14920,8 +15549,11 @@
       <c r="M205" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -14958,8 +15590,11 @@
       <c r="L206" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>215</v>
       </c>
@@ -14999,8 +15634,11 @@
       <c r="M207" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -15040,8 +15678,11 @@
       <c r="M208" t="s">
         <v>2014</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -15081,8 +15722,11 @@
       <c r="M209" t="s">
         <v>2015</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>218</v>
       </c>
@@ -15122,8 +15766,11 @@
       <c r="M210" t="s">
         <v>2016</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>219</v>
       </c>
@@ -15160,8 +15807,11 @@
       <c r="L211" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>220</v>
       </c>
@@ -15198,8 +15848,11 @@
       <c r="L212" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -15236,8 +15889,11 @@
       <c r="L213" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -15274,8 +15930,11 @@
       <c r="L214" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -15312,8 +15971,11 @@
       <c r="L215" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>224</v>
       </c>
@@ -15353,8 +16015,11 @@
       <c r="M216" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>225</v>
       </c>
@@ -15391,8 +16056,11 @@
       <c r="L217" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -15429,8 +16097,11 @@
       <c r="L218" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -15470,8 +16141,11 @@
       <c r="M219" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>228</v>
       </c>
@@ -15511,8 +16185,11 @@
       <c r="M220" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>229</v>
       </c>
@@ -15552,8 +16229,11 @@
       <c r="M221" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>230</v>
       </c>
@@ -15593,8 +16273,11 @@
       <c r="M222" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>231</v>
       </c>
@@ -15634,8 +16317,11 @@
       <c r="M223" t="s">
         <v>2022</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>232</v>
       </c>
@@ -15675,8 +16361,11 @@
       <c r="M224" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>233</v>
       </c>
@@ -15713,8 +16402,11 @@
       <c r="L225" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>234</v>
       </c>
@@ -15754,8 +16446,11 @@
       <c r="M226" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -15795,8 +16490,11 @@
       <c r="M227" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>236</v>
       </c>
@@ -15833,8 +16531,11 @@
       <c r="L228" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>237</v>
       </c>
@@ -15871,8 +16572,11 @@
       <c r="L229" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>238</v>
       </c>
@@ -15909,8 +16613,11 @@
       <c r="L230" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -15947,8 +16654,11 @@
       <c r="L231" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -15988,8 +16698,11 @@
       <c r="M232" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>241</v>
       </c>
@@ -16026,8 +16739,11 @@
       <c r="L233" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>242</v>
       </c>
@@ -16064,8 +16780,11 @@
       <c r="L234" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>243</v>
       </c>
@@ -16105,8 +16824,11 @@
       <c r="M235" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>244</v>
       </c>
@@ -16146,8 +16868,11 @@
       <c r="M236" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -16187,8 +16912,11 @@
       <c r="M237" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -16228,8 +16956,11 @@
       <c r="M238" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>247</v>
       </c>
@@ -16269,8 +17000,11 @@
       <c r="M239" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>248</v>
       </c>
@@ -16310,8 +17044,11 @@
       <c r="M240" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>249</v>
       </c>
@@ -16351,8 +17088,11 @@
       <c r="M241" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>250</v>
       </c>
@@ -16392,8 +17132,11 @@
       <c r="M242" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>251</v>
       </c>
@@ -16433,8 +17176,11 @@
       <c r="M243" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>252</v>
       </c>
@@ -16474,8 +17220,11 @@
       <c r="M244" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>253</v>
       </c>
@@ -16515,8 +17264,11 @@
       <c r="M245" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>254</v>
       </c>
@@ -16556,8 +17308,11 @@
       <c r="M246" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>255</v>
       </c>
@@ -16594,8 +17349,11 @@
       <c r="L247" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -16632,8 +17390,11 @@
       <c r="L248" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>257</v>
       </c>
@@ -16673,8 +17434,11 @@
       <c r="M249" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -16714,8 +17478,11 @@
       <c r="M250" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -16755,8 +17522,11 @@
       <c r="M251" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>260</v>
       </c>
@@ -16796,8 +17566,11 @@
       <c r="M252" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>261</v>
       </c>
@@ -16834,8 +17607,11 @@
       <c r="L253" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>262</v>
       </c>
@@ -16872,8 +17648,11 @@
       <c r="M254" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>263</v>
       </c>
@@ -16913,8 +17692,11 @@
       <c r="M255" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -16954,8 +17736,11 @@
       <c r="M256" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>265</v>
       </c>
@@ -16995,8 +17780,11 @@
       <c r="M257" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>266</v>
       </c>
@@ -17030,8 +17818,11 @@
       <c r="K258" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -17068,8 +17859,11 @@
       <c r="M259" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>268</v>
       </c>
@@ -17106,8 +17900,11 @@
       <c r="L260" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>269</v>
       </c>
@@ -17147,8 +17944,11 @@
       <c r="M261" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>270</v>
       </c>
@@ -17188,8 +17988,11 @@
       <c r="M262" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>271</v>
       </c>
@@ -17229,8 +18032,11 @@
       <c r="M263" t="s">
         <v>2050</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>272</v>
       </c>
@@ -17267,8 +18073,11 @@
       <c r="M264" t="s">
         <v>2051</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>273</v>
       </c>
@@ -17308,8 +18117,11 @@
       <c r="M265" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>274</v>
       </c>
@@ -17346,8 +18158,11 @@
       <c r="L266" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>275</v>
       </c>
@@ -17384,8 +18199,11 @@
       <c r="M267" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>276</v>
       </c>
@@ -17425,8 +18243,11 @@
       <c r="M268" t="s">
         <v>2054</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>277</v>
       </c>
@@ -17463,8 +18284,11 @@
       <c r="L269" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>278</v>
       </c>
@@ -17504,8 +18328,11 @@
       <c r="M270" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>279</v>
       </c>
@@ -17545,8 +18372,11 @@
       <c r="M271" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>280</v>
       </c>
@@ -17586,8 +18416,11 @@
       <c r="M272" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>281</v>
       </c>
@@ -17624,8 +18457,11 @@
       <c r="L273" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>282</v>
       </c>
@@ -17665,8 +18501,11 @@
       <c r="M274" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>283</v>
       </c>
@@ -17706,8 +18545,11 @@
       <c r="M275" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>284</v>
       </c>
@@ -17741,8 +18583,11 @@
       <c r="K276" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>285</v>
       </c>
@@ -17779,8 +18624,11 @@
       <c r="L277" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>286</v>
       </c>
@@ -17820,8 +18668,11 @@
       <c r="M278" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -17858,8 +18709,11 @@
       <c r="M279" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>288</v>
       </c>
@@ -17896,8 +18750,11 @@
       <c r="L280" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>289</v>
       </c>
@@ -17934,8 +18791,11 @@
       <c r="L281" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>290</v>
       </c>
@@ -17975,8 +18835,11 @@
       <c r="M282" t="s">
         <v>2062</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>291</v>
       </c>
@@ -18013,8 +18876,11 @@
       <c r="L283" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>292</v>
       </c>
@@ -18051,8 +18917,11 @@
       <c r="L284" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -18092,8 +18961,11 @@
       <c r="M285" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>294</v>
       </c>
@@ -18127,8 +18999,11 @@
       <c r="K286" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>295</v>
       </c>
@@ -18165,8 +19040,11 @@
       <c r="L287" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>296</v>
       </c>
@@ -18203,8 +19081,11 @@
       <c r="L288" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -18244,8 +19125,11 @@
       <c r="M289" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>298</v>
       </c>
@@ -18282,8 +19166,11 @@
       <c r="L290" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>299</v>
       </c>
@@ -18320,8 +19207,11 @@
       <c r="L291" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>300</v>
       </c>
@@ -18355,8 +19245,11 @@
       <c r="K292" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>301</v>
       </c>
@@ -18393,8 +19286,11 @@
       <c r="L293" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>302</v>
       </c>
@@ -18431,8 +19327,11 @@
       <c r="L294" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>303</v>
       </c>
@@ -18472,8 +19371,11 @@
       <c r="M295" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>304</v>
       </c>
@@ -18513,8 +19415,11 @@
       <c r="M296" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>305</v>
       </c>
@@ -18551,8 +19456,11 @@
       <c r="L297" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>306</v>
       </c>
@@ -18589,8 +19497,11 @@
       <c r="M298" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>307</v>
       </c>
@@ -18627,8 +19538,11 @@
       <c r="L299" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>308</v>
       </c>
@@ -18665,8 +19579,11 @@
       <c r="L300" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>309</v>
       </c>
@@ -18706,8 +19623,11 @@
       <c r="M301" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>310</v>
       </c>
@@ -18744,8 +19664,11 @@
       <c r="L302" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>311</v>
       </c>
@@ -18782,8 +19705,11 @@
       <c r="L303" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>312</v>
       </c>
@@ -18817,8 +19743,11 @@
       <c r="K304" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>313</v>
       </c>
@@ -18855,8 +19784,11 @@
       <c r="L305" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>314</v>
       </c>
@@ -18896,8 +19828,11 @@
       <c r="M306" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>315</v>
       </c>
@@ -18934,8 +19869,11 @@
       <c r="L307" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>316</v>
       </c>
@@ -18972,8 +19910,11 @@
       <c r="L308" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>317</v>
       </c>
@@ -19013,8 +19954,11 @@
       <c r="M309" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>318</v>
       </c>
@@ -19054,8 +19998,11 @@
       <c r="M310" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>319</v>
       </c>
@@ -19092,8 +20039,11 @@
       <c r="L311" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>320</v>
       </c>
@@ -19133,8 +20083,11 @@
       <c r="M312" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>321</v>
       </c>
@@ -19174,8 +20127,11 @@
       <c r="M313" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>322</v>
       </c>
@@ -19215,8 +20171,11 @@
       <c r="M314" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>323</v>
       </c>
@@ -19256,8 +20215,11 @@
       <c r="M315" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>324</v>
       </c>
@@ -19297,8 +20259,11 @@
       <c r="M316" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>325</v>
       </c>
@@ -19338,8 +20303,11 @@
       <c r="M317" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>326</v>
       </c>
@@ -19379,8 +20347,11 @@
       <c r="M318" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>327</v>
       </c>
@@ -19420,8 +20391,11 @@
       <c r="M319" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>328</v>
       </c>
@@ -19461,8 +20435,11 @@
       <c r="M320" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>329</v>
       </c>
@@ -19502,8 +20479,11 @@
       <c r="M321" t="s">
         <v>2081</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>330</v>
       </c>
@@ -19543,8 +20523,11 @@
       <c r="M322" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>331</v>
       </c>
@@ -19584,8 +20567,11 @@
       <c r="M323" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>332</v>
       </c>
@@ -19625,8 +20611,11 @@
       <c r="M324" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>333</v>
       </c>
@@ -19666,8 +20655,11 @@
       <c r="M325" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>334</v>
       </c>
@@ -19704,8 +20696,11 @@
       <c r="L326" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>335</v>
       </c>
@@ -19742,8 +20737,11 @@
       <c r="L327" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>336</v>
       </c>
@@ -19780,8 +20778,11 @@
       <c r="M328" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>337</v>
       </c>
@@ -19818,8 +20819,11 @@
       <c r="L329" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>338</v>
       </c>
@@ -19853,8 +20857,11 @@
       <c r="K330" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>339</v>
       </c>
@@ -19891,8 +20898,11 @@
       <c r="L331" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>340</v>
       </c>
@@ -19932,8 +20942,11 @@
       <c r="M332" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>341</v>
       </c>
@@ -19970,8 +20983,11 @@
       <c r="L333" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>342</v>
       </c>
@@ -20011,8 +21027,11 @@
       <c r="M334" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>343</v>
       </c>
@@ -20052,8 +21071,11 @@
       <c r="M335" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>344</v>
       </c>
@@ -20093,8 +21115,11 @@
       <c r="M336" t="s">
         <v>2090</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>345</v>
       </c>
@@ -20134,8 +21159,11 @@
       <c r="M337" t="s">
         <v>2091</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>346</v>
       </c>
@@ -20172,8 +21200,11 @@
       <c r="M338" t="s">
         <v>2092</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>347</v>
       </c>
@@ -20213,8 +21244,11 @@
       <c r="M339" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>348</v>
       </c>
@@ -20254,8 +21288,11 @@
       <c r="M340" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>349</v>
       </c>
@@ -20292,8 +21329,11 @@
       <c r="L341" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>350</v>
       </c>
@@ -20333,8 +21373,11 @@
       <c r="M342" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>351</v>
       </c>
@@ -20368,8 +21411,11 @@
       <c r="K343" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>352</v>
       </c>
@@ -20409,8 +21455,11 @@
       <c r="M344" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>353</v>
       </c>
@@ -20444,8 +21493,11 @@
       <c r="K345" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>354</v>
       </c>
@@ -20485,8 +21537,11 @@
       <c r="M346" t="s">
         <v>2097</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>355</v>
       </c>
@@ -20523,8 +21578,11 @@
       <c r="L347" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>356</v>
       </c>
@@ -20561,8 +21619,11 @@
       <c r="L348" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>357</v>
       </c>
@@ -20599,8 +21660,11 @@
       <c r="L349" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>358</v>
       </c>
@@ -20640,8 +21704,11 @@
       <c r="M350" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>359</v>
       </c>
@@ -20681,8 +21748,11 @@
       <c r="M351" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>360</v>
       </c>
@@ -20722,8 +21792,11 @@
       <c r="M352" t="s">
         <v>2100</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>361</v>
       </c>
@@ -20763,8 +21836,11 @@
       <c r="M353" t="s">
         <v>2101</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>362</v>
       </c>
@@ -20801,8 +21877,11 @@
       <c r="L354" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>363</v>
       </c>
@@ -20842,8 +21921,11 @@
       <c r="M355" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>364</v>
       </c>
@@ -20880,8 +21962,11 @@
       <c r="L356" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>365</v>
       </c>
@@ -20915,8 +22000,11 @@
       <c r="K357" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>366</v>
       </c>
@@ -20956,8 +22044,11 @@
       <c r="M358" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>367</v>
       </c>
@@ -20997,8 +22088,11 @@
       <c r="M359" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>368</v>
       </c>
@@ -21038,8 +22132,11 @@
       <c r="M360" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>369</v>
       </c>
@@ -21073,8 +22170,11 @@
       <c r="K361" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>370</v>
       </c>
@@ -21114,8 +22214,11 @@
       <c r="M362" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>371</v>
       </c>
@@ -21155,8 +22258,11 @@
       <c r="M363" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>372</v>
       </c>
@@ -21193,8 +22299,11 @@
       <c r="L364" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>373</v>
       </c>
@@ -21231,8 +22340,11 @@
       <c r="L365" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>374</v>
       </c>
@@ -21272,8 +22384,11 @@
       <c r="M366" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>375</v>
       </c>
@@ -21310,8 +22425,11 @@
       <c r="L367" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>376</v>
       </c>
@@ -21351,8 +22469,11 @@
       <c r="M368" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>377</v>
       </c>
@@ -21392,8 +22513,11 @@
       <c r="M369" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>378</v>
       </c>
@@ -21433,8 +22557,11 @@
       <c r="M370" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>379</v>
       </c>
@@ -21474,8 +22601,11 @@
       <c r="M371" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>380</v>
       </c>
@@ -21515,8 +22645,11 @@
       <c r="M372" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>381</v>
       </c>
@@ -21556,8 +22689,11 @@
       <c r="M373" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>382</v>
       </c>
@@ -21597,8 +22733,11 @@
       <c r="M374" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>383</v>
       </c>
@@ -21638,8 +22777,11 @@
       <c r="M375" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>384</v>
       </c>
@@ -21679,8 +22821,11 @@
       <c r="M376" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>385</v>
       </c>
@@ -21717,8 +22862,11 @@
       <c r="L377" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>386</v>
       </c>
@@ -21755,8 +22903,11 @@
       <c r="L378" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>387</v>
       </c>
@@ -21793,8 +22944,11 @@
       <c r="L379" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>388</v>
       </c>
@@ -21831,8 +22985,11 @@
       <c r="L380" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>389</v>
       </c>
@@ -21869,8 +23026,11 @@
       <c r="L381" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>390</v>
       </c>
@@ -21907,8 +23067,11 @@
       <c r="L382" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>391</v>
       </c>
@@ -21945,8 +23108,11 @@
       <c r="L383" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>392</v>
       </c>
@@ -21980,8 +23146,11 @@
       <c r="K384" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>393</v>
       </c>
@@ -22018,8 +23187,11 @@
       <c r="L385" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>394</v>
       </c>
@@ -22059,8 +23231,11 @@
       <c r="M386" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>395</v>
       </c>
@@ -22100,8 +23275,11 @@
       <c r="M387" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>396</v>
       </c>
@@ -22141,8 +23319,11 @@
       <c r="M388" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>397</v>
       </c>
@@ -22182,8 +23363,11 @@
       <c r="M389" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>398</v>
       </c>
@@ -22223,8 +23407,11 @@
       <c r="M390" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>399</v>
       </c>
@@ -22261,8 +23448,11 @@
       <c r="L391" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>400</v>
       </c>
@@ -22302,8 +23492,11 @@
       <c r="M392" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>401</v>
       </c>
@@ -22343,8 +23536,11 @@
       <c r="M393" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>402</v>
       </c>
@@ -22381,8 +23577,11 @@
       <c r="L394" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>403</v>
       </c>
@@ -22422,8 +23621,11 @@
       <c r="M395" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>404</v>
       </c>
@@ -22460,8 +23662,11 @@
       <c r="M396" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>405</v>
       </c>
@@ -22498,8 +23703,11 @@
       <c r="L397" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>406</v>
       </c>
@@ -22536,8 +23744,11 @@
       <c r="L398" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>407</v>
       </c>
@@ -22571,8 +23782,11 @@
       <c r="K399" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>408</v>
       </c>
@@ -22611,6 +23825,9 @@
       </c>
       <c r="M400" t="s">
         <v>2127</v>
+      </c>
+      <c r="N400">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/hotel_collection_clean.xlsx
+++ b/raw_data/hotel_collection_clean.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peeranutmacpro/Files/project/SWDev-hotel-reservation/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CU3-2\SWDev-hotel-reservation\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4A7A55-F533-E846-AFB8-124A90140596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="756" windowWidth="26700" windowHeight="17184"/>
   </bookViews>
   <sheets>
     <sheet name="Generated by Outscraper ©" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="2134">
   <si>
     <t>name</t>
   </si>
@@ -6422,12 +6421,15 @@
   </si>
   <si>
     <t>score</t>
+  </si>
+  <si>
+    <t>review_count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6592,23 +6594,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6644,23 +6629,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6836,16 +6804,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N400"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="136" workbookViewId="0">
+      <selection activeCell="P186" sqref="P186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6888,8 +6859,11 @@
       <c r="N1" s="2" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="2" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6932,8 +6906,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6973,8 +6950,11 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -7014,8 +6994,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -7052,8 +7035,11 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -7093,8 +7079,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -7134,8 +7123,11 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -7175,8 +7167,11 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -7216,8 +7211,11 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -7257,8 +7255,11 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -7298,8 +7299,11 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -7336,8 +7340,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -7380,8 +7387,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7424,8 +7434,11 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -7465,8 +7478,11 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7509,8 +7525,11 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7553,8 +7572,11 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -7597,8 +7619,11 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -7638,8 +7663,11 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -7682,8 +7710,11 @@
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -7726,8 +7757,11 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -7770,8 +7804,11 @@
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -7814,8 +7851,11 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -7858,8 +7898,11 @@
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7902,8 +7945,11 @@
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -7946,8 +7992,11 @@
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -7990,8 +8039,11 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -8034,8 +8086,11 @@
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -8078,8 +8133,11 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -8122,8 +8180,11 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -8166,8 +8227,11 @@
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -8210,8 +8274,11 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -8248,8 +8315,11 @@
       <c r="N33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -8292,8 +8362,11 @@
       <c r="N34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -8333,8 +8406,11 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -8374,8 +8450,11 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -8418,8 +8497,11 @@
       <c r="N37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -8459,8 +8541,11 @@
       <c r="N38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -8497,8 +8582,11 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -8538,8 +8626,11 @@
       <c r="N40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -8582,8 +8673,11 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -8626,8 +8720,11 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -8670,8 +8767,11 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8711,8 +8811,11 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -8752,8 +8855,11 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -8796,8 +8902,11 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -8840,8 +8949,11 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -8881,8 +8993,11 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -8925,8 +9040,11 @@
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -8966,8 +9084,11 @@
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -9007,8 +9128,11 @@
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -9048,8 +9172,11 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -9086,8 +9213,11 @@
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -9127,8 +9257,11 @@
       <c r="N54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -9171,8 +9304,11 @@
       <c r="N55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -9212,8 +9348,11 @@
       <c r="N56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -9253,8 +9392,11 @@
       <c r="N57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -9294,8 +9436,11 @@
       <c r="N58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -9335,8 +9480,11 @@
       <c r="N59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -9376,8 +9524,11 @@
       <c r="N60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -9417,8 +9568,11 @@
       <c r="N61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -9461,8 +9615,11 @@
       <c r="N62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -9505,8 +9662,11 @@
       <c r="N63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -9549,8 +9709,11 @@
       <c r="N64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -9590,8 +9753,11 @@
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -9631,8 +9797,11 @@
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -9675,8 +9844,11 @@
       <c r="N67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -9719,8 +9891,11 @@
       <c r="N68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -9760,8 +9935,11 @@
       <c r="N69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -9804,8 +9982,11 @@
       <c r="N70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -9845,8 +10026,11 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -9889,8 +10073,11 @@
       <c r="N72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -9933,8 +10120,11 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -9974,8 +10164,11 @@
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -10018,8 +10211,11 @@
       <c r="N75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -10062,8 +10258,11 @@
       <c r="N76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -10106,8 +10305,11 @@
       <c r="N77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -10147,8 +10349,11 @@
       <c r="N78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -10188,8 +10393,11 @@
       <c r="N79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -10229,8 +10437,11 @@
       <c r="N80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -10273,8 +10484,11 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -10314,8 +10528,11 @@
       <c r="N82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -10358,8 +10575,11 @@
       <c r="N83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -10396,8 +10616,11 @@
       <c r="N84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -10440,8 +10663,11 @@
       <c r="N85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -10484,8 +10710,11 @@
       <c r="N86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -10522,8 +10751,11 @@
       <c r="N87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -10560,8 +10792,11 @@
       <c r="N88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -10604,8 +10839,11 @@
       <c r="N89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -10648,8 +10886,11 @@
       <c r="N90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -10689,8 +10930,11 @@
       <c r="N91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -10733,8 +10977,11 @@
       <c r="N92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -10774,8 +11021,11 @@
       <c r="N93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -10818,8 +11068,11 @@
       <c r="N94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -10859,8 +11112,11 @@
       <c r="N95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -10903,8 +11159,11 @@
       <c r="N96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -10947,8 +11206,11 @@
       <c r="N97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -10991,8 +11253,11 @@
       <c r="N98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -11029,8 +11294,11 @@
       <c r="N99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -11073,8 +11341,11 @@
       <c r="N100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -11117,8 +11388,11 @@
       <c r="N101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -11161,8 +11435,11 @@
       <c r="N102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -11205,8 +11482,11 @@
       <c r="N103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -11246,8 +11526,11 @@
       <c r="N104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -11290,8 +11573,11 @@
       <c r="N105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -11334,8 +11620,11 @@
       <c r="N106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -11378,8 +11667,11 @@
       <c r="N107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -11422,8 +11714,11 @@
       <c r="N108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -11466,8 +11761,11 @@
       <c r="N109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -11510,8 +11808,11 @@
       <c r="N110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -11554,8 +11855,11 @@
       <c r="N111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -11595,8 +11899,11 @@
       <c r="N112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -11639,8 +11946,11 @@
       <c r="N113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>122</v>
       </c>
@@ -11683,8 +11993,11 @@
       <c r="N114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>123</v>
       </c>
@@ -11727,8 +12040,11 @@
       <c r="N115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>124</v>
       </c>
@@ -11765,8 +12081,11 @@
       <c r="N116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -11806,8 +12125,11 @@
       <c r="N117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -11850,8 +12172,11 @@
       <c r="N118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -11894,8 +12219,11 @@
       <c r="N119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -11938,8 +12266,11 @@
       <c r="N120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>129</v>
       </c>
@@ -11976,8 +12307,11 @@
       <c r="N121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -12020,8 +12354,11 @@
       <c r="N122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>131</v>
       </c>
@@ -12061,8 +12398,11 @@
       <c r="N123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -12105,8 +12445,11 @@
       <c r="N124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>133</v>
       </c>
@@ -12146,8 +12489,11 @@
       <c r="N125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>134</v>
       </c>
@@ -12190,8 +12536,11 @@
       <c r="N126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>135</v>
       </c>
@@ -12234,8 +12583,11 @@
       <c r="N127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -12275,8 +12627,11 @@
       <c r="N128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -12319,8 +12674,11 @@
       <c r="N129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -12360,8 +12718,11 @@
       <c r="N130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -12401,8 +12762,11 @@
       <c r="N131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -12445,8 +12809,11 @@
       <c r="N132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -12489,8 +12856,11 @@
       <c r="N133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -12533,8 +12903,11 @@
       <c r="N134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -12577,8 +12950,11 @@
       <c r="N135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -12621,8 +12997,11 @@
       <c r="N136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -12662,8 +13041,11 @@
       <c r="N137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -12706,8 +13088,11 @@
       <c r="N138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -12750,8 +13135,11 @@
       <c r="N139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -12791,8 +13179,11 @@
       <c r="N140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -12835,8 +13226,11 @@
       <c r="N141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>150</v>
       </c>
@@ -12876,8 +13270,11 @@
       <c r="N142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>151</v>
       </c>
@@ -12917,8 +13314,11 @@
       <c r="N143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>152</v>
       </c>
@@ -12958,8 +13358,11 @@
       <c r="N144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -12999,8 +13402,11 @@
       <c r="N145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>154</v>
       </c>
@@ -13040,8 +13446,11 @@
       <c r="N146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -13084,8 +13493,11 @@
       <c r="N147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>156</v>
       </c>
@@ -13125,8 +13537,11 @@
       <c r="N148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>157</v>
       </c>
@@ -13166,8 +13581,11 @@
       <c r="N149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>158</v>
       </c>
@@ -13210,8 +13628,11 @@
       <c r="N150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>159</v>
       </c>
@@ -13248,8 +13669,11 @@
       <c r="N151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>160</v>
       </c>
@@ -13292,8 +13716,11 @@
       <c r="N152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -13336,8 +13763,11 @@
       <c r="N153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>162</v>
       </c>
@@ -13377,8 +13807,11 @@
       <c r="N154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>163</v>
       </c>
@@ -13421,8 +13854,11 @@
       <c r="N155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -13462,8 +13898,11 @@
       <c r="N156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -13506,8 +13945,11 @@
       <c r="N157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -13550,8 +13992,11 @@
       <c r="N158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -13591,8 +14036,11 @@
       <c r="N159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -13632,8 +14080,11 @@
       <c r="N160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>169</v>
       </c>
@@ -13673,8 +14124,11 @@
       <c r="N161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>170</v>
       </c>
@@ -13714,8 +14168,11 @@
       <c r="N162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -13752,8 +14209,11 @@
       <c r="N163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>172</v>
       </c>
@@ -13793,8 +14253,11 @@
       <c r="N164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -13831,8 +14294,11 @@
       <c r="N165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>174</v>
       </c>
@@ -13872,8 +14338,11 @@
       <c r="N166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>175</v>
       </c>
@@ -13913,8 +14382,11 @@
       <c r="N167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -13957,8 +14429,11 @@
       <c r="N168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>177</v>
       </c>
@@ -13998,8 +14473,11 @@
       <c r="N169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -14039,8 +14517,11 @@
       <c r="N170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>179</v>
       </c>
@@ -14083,8 +14564,11 @@
       <c r="N171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>180</v>
       </c>
@@ -14124,8 +14608,11 @@
       <c r="N172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -14168,8 +14655,11 @@
       <c r="N173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>182</v>
       </c>
@@ -14212,8 +14702,11 @@
       <c r="N174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>183</v>
       </c>
@@ -14256,8 +14749,11 @@
       <c r="N175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>184</v>
       </c>
@@ -14300,8 +14796,11 @@
       <c r="N176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>185</v>
       </c>
@@ -14344,8 +14843,11 @@
       <c r="N177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>186</v>
       </c>
@@ -14388,8 +14890,11 @@
       <c r="N178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>187</v>
       </c>
@@ -14432,8 +14937,11 @@
       <c r="N179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>188</v>
       </c>
@@ -14476,8 +14984,11 @@
       <c r="N180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -14514,8 +15025,11 @@
       <c r="N181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>190</v>
       </c>
@@ -14555,8 +15069,11 @@
       <c r="N182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>191</v>
       </c>
@@ -14599,8 +15116,11 @@
       <c r="N183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -14643,8 +15163,11 @@
       <c r="N184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -14687,8 +15210,11 @@
       <c r="N185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -14731,8 +15257,11 @@
       <c r="N186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>195</v>
       </c>
@@ -14775,8 +15304,11 @@
       <c r="N187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>196</v>
       </c>
@@ -14819,8 +15351,11 @@
       <c r="N188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>197</v>
       </c>
@@ -14860,8 +15395,11 @@
       <c r="N189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>198</v>
       </c>
@@ -14904,8 +15442,11 @@
       <c r="N190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>199</v>
       </c>
@@ -14948,8 +15489,11 @@
       <c r="N191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -14989,8 +15533,11 @@
       <c r="N192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>201</v>
       </c>
@@ -15033,8 +15580,11 @@
       <c r="N193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -15077,8 +15627,11 @@
       <c r="N194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>203</v>
       </c>
@@ -15121,8 +15674,11 @@
       <c r="N195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>204</v>
       </c>
@@ -15165,8 +15721,11 @@
       <c r="N196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>205</v>
       </c>
@@ -15209,8 +15768,11 @@
       <c r="N197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>206</v>
       </c>
@@ -15253,8 +15815,11 @@
       <c r="N198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>207</v>
       </c>
@@ -15294,8 +15859,11 @@
       <c r="N199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -15338,8 +15906,11 @@
       <c r="N200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>209</v>
       </c>
@@ -15382,8 +15953,11 @@
       <c r="N201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>210</v>
       </c>
@@ -15426,8 +16000,11 @@
       <c r="N202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>211</v>
       </c>
@@ -15467,8 +16044,11 @@
       <c r="N203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>212</v>
       </c>
@@ -15508,8 +16088,11 @@
       <c r="N204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -15552,8 +16135,11 @@
       <c r="N205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>214</v>
       </c>
@@ -15593,8 +16179,11 @@
       <c r="N206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>215</v>
       </c>
@@ -15637,8 +16226,11 @@
       <c r="N207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>216</v>
       </c>
@@ -15681,8 +16273,11 @@
       <c r="N208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>217</v>
       </c>
@@ -15725,8 +16320,11 @@
       <c r="N209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>218</v>
       </c>
@@ -15769,8 +16367,11 @@
       <c r="N210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>219</v>
       </c>
@@ -15810,8 +16411,11 @@
       <c r="N211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>220</v>
       </c>
@@ -15851,8 +16455,11 @@
       <c r="N212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -15892,8 +16499,11 @@
       <c r="N213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>222</v>
       </c>
@@ -15933,8 +16543,11 @@
       <c r="N214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>223</v>
       </c>
@@ -15974,8 +16587,11 @@
       <c r="N215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>224</v>
       </c>
@@ -16018,8 +16634,11 @@
       <c r="N216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>225</v>
       </c>
@@ -16059,8 +16678,11 @@
       <c r="N217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>226</v>
       </c>
@@ -16100,8 +16722,11 @@
       <c r="N218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>227</v>
       </c>
@@ -16144,8 +16769,11 @@
       <c r="N219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>228</v>
       </c>
@@ -16188,8 +16816,11 @@
       <c r="N220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>229</v>
       </c>
@@ -16232,8 +16863,11 @@
       <c r="N221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>230</v>
       </c>
@@ -16276,8 +16910,11 @@
       <c r="N222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>231</v>
       </c>
@@ -16320,8 +16957,11 @@
       <c r="N223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>232</v>
       </c>
@@ -16364,8 +17004,11 @@
       <c r="N224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>233</v>
       </c>
@@ -16405,8 +17048,11 @@
       <c r="N225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>234</v>
       </c>
@@ -16449,8 +17095,11 @@
       <c r="N226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>235</v>
       </c>
@@ -16493,8 +17142,11 @@
       <c r="N227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>236</v>
       </c>
@@ -16534,8 +17186,11 @@
       <c r="N228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>237</v>
       </c>
@@ -16575,8 +17230,11 @@
       <c r="N229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>238</v>
       </c>
@@ -16616,8 +17274,11 @@
       <c r="N230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>239</v>
       </c>
@@ -16657,8 +17318,11 @@
       <c r="N231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>240</v>
       </c>
@@ -16701,8 +17365,11 @@
       <c r="N232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>241</v>
       </c>
@@ -16742,8 +17409,11 @@
       <c r="N233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>242</v>
       </c>
@@ -16783,8 +17453,11 @@
       <c r="N234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>243</v>
       </c>
@@ -16827,8 +17500,11 @@
       <c r="N235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>244</v>
       </c>
@@ -16871,8 +17547,11 @@
       <c r="N236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -16915,8 +17594,11 @@
       <c r="N237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>246</v>
       </c>
@@ -16959,8 +17641,11 @@
       <c r="N238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>247</v>
       </c>
@@ -17003,8 +17688,11 @@
       <c r="N239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>248</v>
       </c>
@@ -17047,8 +17735,11 @@
       <c r="N240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>249</v>
       </c>
@@ -17091,8 +17782,11 @@
       <c r="N241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>250</v>
       </c>
@@ -17135,8 +17829,11 @@
       <c r="N242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>251</v>
       </c>
@@ -17179,8 +17876,11 @@
       <c r="N243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>252</v>
       </c>
@@ -17223,8 +17923,11 @@
       <c r="N244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>253</v>
       </c>
@@ -17267,8 +17970,11 @@
       <c r="N245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>254</v>
       </c>
@@ -17311,8 +18017,11 @@
       <c r="N246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>255</v>
       </c>
@@ -17352,8 +18061,11 @@
       <c r="N247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>256</v>
       </c>
@@ -17393,8 +18105,11 @@
       <c r="N248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>257</v>
       </c>
@@ -17437,8 +18152,11 @@
       <c r="N249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -17481,8 +18199,11 @@
       <c r="N250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>259</v>
       </c>
@@ -17525,8 +18246,11 @@
       <c r="N251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>260</v>
       </c>
@@ -17569,8 +18293,11 @@
       <c r="N252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>261</v>
       </c>
@@ -17610,8 +18337,11 @@
       <c r="N253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>262</v>
       </c>
@@ -17651,8 +18381,11 @@
       <c r="N254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>263</v>
       </c>
@@ -17695,8 +18428,11 @@
       <c r="N255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>264</v>
       </c>
@@ -17739,8 +18475,11 @@
       <c r="N256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>265</v>
       </c>
@@ -17783,8 +18522,11 @@
       <c r="N257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>266</v>
       </c>
@@ -17821,8 +18563,11 @@
       <c r="N258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>267</v>
       </c>
@@ -17862,8 +18607,11 @@
       <c r="N259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>268</v>
       </c>
@@ -17903,8 +18651,11 @@
       <c r="N260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>269</v>
       </c>
@@ -17947,8 +18698,11 @@
       <c r="N261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>270</v>
       </c>
@@ -17991,8 +18745,11 @@
       <c r="N262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>271</v>
       </c>
@@ -18035,8 +18792,11 @@
       <c r="N263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>272</v>
       </c>
@@ -18076,8 +18836,11 @@
       <c r="N264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>273</v>
       </c>
@@ -18120,8 +18883,11 @@
       <c r="N265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>274</v>
       </c>
@@ -18161,8 +18927,11 @@
       <c r="N266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>275</v>
       </c>
@@ -18202,8 +18971,11 @@
       <c r="N267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>276</v>
       </c>
@@ -18246,8 +19018,11 @@
       <c r="N268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>277</v>
       </c>
@@ -18287,8 +19062,11 @@
       <c r="N269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>278</v>
       </c>
@@ -18331,8 +19109,11 @@
       <c r="N270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>279</v>
       </c>
@@ -18375,8 +19156,11 @@
       <c r="N271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>280</v>
       </c>
@@ -18419,8 +19203,11 @@
       <c r="N272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>281</v>
       </c>
@@ -18460,8 +19247,11 @@
       <c r="N273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>282</v>
       </c>
@@ -18504,8 +19294,11 @@
       <c r="N274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>283</v>
       </c>
@@ -18548,8 +19341,11 @@
       <c r="N275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>284</v>
       </c>
@@ -18586,8 +19382,11 @@
       <c r="N276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>285</v>
       </c>
@@ -18627,8 +19426,11 @@
       <c r="N277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>286</v>
       </c>
@@ -18671,8 +19473,11 @@
       <c r="N278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>287</v>
       </c>
@@ -18712,8 +19517,11 @@
       <c r="N279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>288</v>
       </c>
@@ -18753,8 +19561,11 @@
       <c r="N280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>289</v>
       </c>
@@ -18794,8 +19605,11 @@
       <c r="N281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>290</v>
       </c>
@@ -18838,8 +19652,11 @@
       <c r="N282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>291</v>
       </c>
@@ -18879,8 +19696,11 @@
       <c r="N283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>292</v>
       </c>
@@ -18920,8 +19740,11 @@
       <c r="N284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>293</v>
       </c>
@@ -18964,8 +19787,11 @@
       <c r="N285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>294</v>
       </c>
@@ -19002,8 +19828,11 @@
       <c r="N286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>295</v>
       </c>
@@ -19043,8 +19872,11 @@
       <c r="N287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>296</v>
       </c>
@@ -19084,8 +19916,11 @@
       <c r="N288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>297</v>
       </c>
@@ -19128,8 +19963,11 @@
       <c r="N289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>298</v>
       </c>
@@ -19169,8 +20007,11 @@
       <c r="N290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>299</v>
       </c>
@@ -19210,8 +20051,11 @@
       <c r="N291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>300</v>
       </c>
@@ -19248,8 +20092,11 @@
       <c r="N292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>301</v>
       </c>
@@ -19289,8 +20136,11 @@
       <c r="N293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>302</v>
       </c>
@@ -19330,8 +20180,11 @@
       <c r="N294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>303</v>
       </c>
@@ -19374,8 +20227,11 @@
       <c r="N295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>304</v>
       </c>
@@ -19418,8 +20274,11 @@
       <c r="N296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>305</v>
       </c>
@@ -19459,8 +20318,11 @@
       <c r="N297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>306</v>
       </c>
@@ -19500,8 +20362,11 @@
       <c r="N298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>307</v>
       </c>
@@ -19541,8 +20406,11 @@
       <c r="N299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>308</v>
       </c>
@@ -19582,8 +20450,11 @@
       <c r="N300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>309</v>
       </c>
@@ -19626,8 +20497,11 @@
       <c r="N301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>310</v>
       </c>
@@ -19667,8 +20541,11 @@
       <c r="N302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>311</v>
       </c>
@@ -19708,8 +20585,11 @@
       <c r="N303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>312</v>
       </c>
@@ -19746,8 +20626,11 @@
       <c r="N304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>313</v>
       </c>
@@ -19787,8 +20670,11 @@
       <c r="N305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>314</v>
       </c>
@@ -19831,8 +20717,11 @@
       <c r="N306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>315</v>
       </c>
@@ -19872,8 +20761,11 @@
       <c r="N307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>316</v>
       </c>
@@ -19913,8 +20805,11 @@
       <c r="N308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>317</v>
       </c>
@@ -19957,8 +20852,11 @@
       <c r="N309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>318</v>
       </c>
@@ -20001,8 +20899,11 @@
       <c r="N310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>319</v>
       </c>
@@ -20042,8 +20943,11 @@
       <c r="N311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>320</v>
       </c>
@@ -20086,8 +20990,11 @@
       <c r="N312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>321</v>
       </c>
@@ -20130,8 +21037,11 @@
       <c r="N313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>322</v>
       </c>
@@ -20174,8 +21084,11 @@
       <c r="N314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>323</v>
       </c>
@@ -20218,8 +21131,11 @@
       <c r="N315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>324</v>
       </c>
@@ -20262,8 +21178,11 @@
       <c r="N316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>325</v>
       </c>
@@ -20306,8 +21225,11 @@
       <c r="N317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>326</v>
       </c>
@@ -20350,8 +21272,11 @@
       <c r="N318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>327</v>
       </c>
@@ -20394,8 +21319,11 @@
       <c r="N319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>328</v>
       </c>
@@ -20438,8 +21366,11 @@
       <c r="N320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>329</v>
       </c>
@@ -20482,8 +21413,11 @@
       <c r="N321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>330</v>
       </c>
@@ -20526,8 +21460,11 @@
       <c r="N322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>331</v>
       </c>
@@ -20570,8 +21507,11 @@
       <c r="N323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>332</v>
       </c>
@@ -20614,8 +21554,11 @@
       <c r="N324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>333</v>
       </c>
@@ -20658,8 +21601,11 @@
       <c r="N325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>334</v>
       </c>
@@ -20699,8 +21645,11 @@
       <c r="N326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>335</v>
       </c>
@@ -20740,8 +21689,11 @@
       <c r="N327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>336</v>
       </c>
@@ -20781,8 +21733,11 @@
       <c r="N328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>337</v>
       </c>
@@ -20822,8 +21777,11 @@
       <c r="N329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>338</v>
       </c>
@@ -20860,8 +21818,11 @@
       <c r="N330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>339</v>
       </c>
@@ -20901,8 +21862,11 @@
       <c r="N331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>340</v>
       </c>
@@ -20945,8 +21909,11 @@
       <c r="N332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>341</v>
       </c>
@@ -20986,8 +21953,11 @@
       <c r="N333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>342</v>
       </c>
@@ -21030,8 +22000,11 @@
       <c r="N334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>343</v>
       </c>
@@ -21074,8 +22047,11 @@
       <c r="N335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>344</v>
       </c>
@@ -21118,8 +22094,11 @@
       <c r="N336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>345</v>
       </c>
@@ -21162,8 +22141,11 @@
       <c r="N337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>346</v>
       </c>
@@ -21203,8 +22185,11 @@
       <c r="N338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>347</v>
       </c>
@@ -21247,8 +22232,11 @@
       <c r="N339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>348</v>
       </c>
@@ -21291,8 +22279,11 @@
       <c r="N340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>349</v>
       </c>
@@ -21332,8 +22323,11 @@
       <c r="N341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>350</v>
       </c>
@@ -21376,8 +22370,11 @@
       <c r="N342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>351</v>
       </c>
@@ -21414,8 +22411,11 @@
       <c r="N343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>352</v>
       </c>
@@ -21458,8 +22458,11 @@
       <c r="N344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>353</v>
       </c>
@@ -21496,8 +22499,11 @@
       <c r="N345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>354</v>
       </c>
@@ -21540,8 +22546,11 @@
       <c r="N346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>355</v>
       </c>
@@ -21581,8 +22590,11 @@
       <c r="N347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>356</v>
       </c>
@@ -21622,8 +22634,11 @@
       <c r="N348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>357</v>
       </c>
@@ -21663,8 +22678,11 @@
       <c r="N349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>358</v>
       </c>
@@ -21707,8 +22725,11 @@
       <c r="N350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>359</v>
       </c>
@@ -21751,8 +22772,11 @@
       <c r="N351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>360</v>
       </c>
@@ -21795,8 +22819,11 @@
       <c r="N352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>361</v>
       </c>
@@ -21839,8 +22866,11 @@
       <c r="N353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>362</v>
       </c>
@@ -21880,8 +22910,11 @@
       <c r="N354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>363</v>
       </c>
@@ -21924,8 +22957,11 @@
       <c r="N355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>364</v>
       </c>
@@ -21965,8 +23001,11 @@
       <c r="N356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>365</v>
       </c>
@@ -22003,8 +23042,11 @@
       <c r="N357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>366</v>
       </c>
@@ -22047,8 +23089,11 @@
       <c r="N358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>367</v>
       </c>
@@ -22091,8 +23136,11 @@
       <c r="N359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>368</v>
       </c>
@@ -22135,8 +23183,11 @@
       <c r="N360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>369</v>
       </c>
@@ -22173,8 +23224,11 @@
       <c r="N361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>370</v>
       </c>
@@ -22217,8 +23271,11 @@
       <c r="N362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>371</v>
       </c>
@@ -22261,8 +23318,11 @@
       <c r="N363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>372</v>
       </c>
@@ -22302,8 +23362,11 @@
       <c r="N364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>373</v>
       </c>
@@ -22343,8 +23406,11 @@
       <c r="N365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>374</v>
       </c>
@@ -22387,8 +23453,11 @@
       <c r="N366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>375</v>
       </c>
@@ -22428,8 +23497,11 @@
       <c r="N367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>376</v>
       </c>
@@ -22472,8 +23544,11 @@
       <c r="N368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>377</v>
       </c>
@@ -22516,8 +23591,11 @@
       <c r="N369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>378</v>
       </c>
@@ -22560,8 +23638,11 @@
       <c r="N370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>379</v>
       </c>
@@ -22604,8 +23685,11 @@
       <c r="N371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>380</v>
       </c>
@@ -22648,8 +23732,11 @@
       <c r="N372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>381</v>
       </c>
@@ -22692,8 +23779,11 @@
       <c r="N373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>382</v>
       </c>
@@ -22736,8 +23826,11 @@
       <c r="N374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>383</v>
       </c>
@@ -22780,8 +23873,11 @@
       <c r="N375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>384</v>
       </c>
@@ -22824,8 +23920,11 @@
       <c r="N376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>385</v>
       </c>
@@ -22865,8 +23964,11 @@
       <c r="N377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>386</v>
       </c>
@@ -22906,8 +24008,11 @@
       <c r="N378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>387</v>
       </c>
@@ -22947,8 +24052,11 @@
       <c r="N379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>388</v>
       </c>
@@ -22988,8 +24096,11 @@
       <c r="N380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>389</v>
       </c>
@@ -23029,8 +24140,11 @@
       <c r="N381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>390</v>
       </c>
@@ -23070,8 +24184,11 @@
       <c r="N382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>391</v>
       </c>
@@ -23111,8 +24228,11 @@
       <c r="N383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>392</v>
       </c>
@@ -23149,8 +24269,11 @@
       <c r="N384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>393</v>
       </c>
@@ -23190,8 +24313,11 @@
       <c r="N385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>394</v>
       </c>
@@ -23234,8 +24360,11 @@
       <c r="N386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>395</v>
       </c>
@@ -23278,8 +24407,11 @@
       <c r="N387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>396</v>
       </c>
@@ -23322,8 +24454,11 @@
       <c r="N388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>397</v>
       </c>
@@ -23366,8 +24501,11 @@
       <c r="N389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>398</v>
       </c>
@@ -23410,8 +24548,11 @@
       <c r="N390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>399</v>
       </c>
@@ -23451,8 +24592,11 @@
       <c r="N391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>400</v>
       </c>
@@ -23495,8 +24639,11 @@
       <c r="N392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>401</v>
       </c>
@@ -23539,8 +24686,11 @@
       <c r="N393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>402</v>
       </c>
@@ -23580,8 +24730,11 @@
       <c r="N394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>403</v>
       </c>
@@ -23624,8 +24777,11 @@
       <c r="N395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>404</v>
       </c>
@@ -23665,8 +24821,11 @@
       <c r="N396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>405</v>
       </c>
@@ -23706,8 +24865,11 @@
       <c r="N397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>406</v>
       </c>
@@ -23747,8 +24909,11 @@
       <c r="N398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>407</v>
       </c>
@@ -23785,8 +24950,11 @@
       <c r="N399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>408</v>
       </c>
@@ -23827,6 +24995,9 @@
         <v>2127</v>
       </c>
       <c r="N400">
+        <v>0</v>
+      </c>
+      <c r="O400">
         <v>0</v>
       </c>
     </row>
